--- a/Project 2/Documents/FunctionPlotterDocuments/SmoothenOutput/output1SaltedSmoothenedGraph.xlsx
+++ b/Project 2/Documents/FunctionPlotterDocuments/SmoothenOutput/output1SaltedSmoothenedGraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{180DAC95-2E7A-41F0-A1AB-1EF98BD88480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{443779AF-B857-458B-9EB6-2F6801EFA50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{27D5463F-1B46-4EFD-A607-89CA55DA6254}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{5A9EF001-60D7-451B-A2B4-48E7BDFF1B96}"/>
   </bookViews>
   <sheets>
     <sheet name="output1SaltedSmoothened" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Smoothened Output (Window Value: 3)</a:t>
             </a:r>
           </a:p>
@@ -974,304 +981,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4285714285714199</c:v>
+                  <c:v>9.3333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.571428571428498</c:v>
+                  <c:v>-9.3333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.857142857142801</c:v>
+                  <c:v>-21.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.1428571428571</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.714285714285701</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.428571428571399</c:v>
+                  <c:v>42.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>78.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.428571428571402</c:v>
+                  <c:v>108.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.571428571428498</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72</c:v>
+                  <c:v>136.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77.571428571428498</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>87</c:v>
+                  <c:v>186.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.428571428571</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114.714285714285</c:v>
+                  <c:v>272.33333333333297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>141.28571428571399</c:v>
+                  <c:v>295.33333333333297</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>155.71428571428501</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>178.28571428571399</c:v>
+                  <c:v>326.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>194.28571428571399</c:v>
+                  <c:v>386.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>214.57142857142799</c:v>
+                  <c:v>423.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>226.42857142857099</c:v>
+                  <c:v>470.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>235.71428571428501</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>254.85714285714201</c:v>
+                  <c:v>570.66666666666595</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>276</c:v>
+                  <c:v>634</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>305.85714285714198</c:v>
+                  <c:v>681.33333333333303</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>329.85714285714198</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>364.57142857142799</c:v>
+                  <c:v>792</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>382.57142857142799</c:v>
+                  <c:v>870.33333333333303</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>402.57142857142799</c:v>
+                  <c:v>916.33333333333303</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>428.57142857142799</c:v>
+                  <c:v>948.66666666666595</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>458.71428571428498</c:v>
+                  <c:v>994.33333333333303</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>490.71428571428498</c:v>
+                  <c:v>1081.3333333333301</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>521.28571428571399</c:v>
+                  <c:v>1176</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>559.28571428571399</c:v>
+                  <c:v>1243</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>592.71428571428498</c:v>
+                  <c:v>1287.3333333333301</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>621.28571428571399</c:v>
+                  <c:v>1359</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>652.85714285714198</c:v>
+                  <c:v>1459.3333333333301</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>685.85714285714198</c:v>
+                  <c:v>1561</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>714.85714285714198</c:v>
+                  <c:v>1643.3333333333301</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>741.85714285714198</c:v>
+                  <c:v>1698.6666666666599</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>767.142857142857</c:v>
+                  <c:v>1764.6666666666599</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>800.71428571428498</c:v>
+                  <c:v>1844.3333333333301</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>845.142857142857</c:v>
+                  <c:v>1957.6666666666599</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>889.142857142857</c:v>
+                  <c:v>2062.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>927.71428571428498</c:v>
+                  <c:v>2156</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>971.42857142857099</c:v>
+                  <c:v>2249</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1008.1428571428499</c:v>
+                  <c:v>2348.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1051.42857142857</c:v>
+                  <c:v>2439.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1086.57142857142</c:v>
+                  <c:v>2515.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1140.1428571428501</c:v>
+                  <c:v>2609</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1196</c:v>
+                  <c:v>2694.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1241.2857142857099</c:v>
+                  <c:v>2812.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1286.42857142857</c:v>
+                  <c:v>2908</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1333.57142857142</c:v>
+                  <c:v>3012.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1381.57142857142</c:v>
+                  <c:v>3123.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1421.42857142857</c:v>
+                  <c:v>3225.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1459.57142857142</c:v>
+                  <c:v>3371</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1508.2857142857099</c:v>
+                  <c:v>3470.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1569.42857142857</c:v>
+                  <c:v>3593</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1629.8571428571399</c:v>
+                  <c:v>3685.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1682.8571428571399</c:v>
+                  <c:v>3828.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1728.2857142857099</c:v>
+                  <c:v>3957.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1786.1428571428501</c:v>
+                  <c:v>4103</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1851</c:v>
+                  <c:v>4217.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1920.57142857142</c:v>
+                  <c:v>4340.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1976.57142857142</c:v>
+                  <c:v>4483.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2026.7142857142801</c:v>
+                  <c:v>4635.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2074.1428571428501</c:v>
+                  <c:v>4781.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2127</c:v>
+                  <c:v>4915.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2187.2857142857101</c:v>
+                  <c:v>5058</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2258.8571428571399</c:v>
+                  <c:v>5203.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2332.7142857142799</c:v>
+                  <c:v>5329.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2394.2857142857101</c:v>
+                  <c:v>5460.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2456.2857142857101</c:v>
+                  <c:v>5608.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2521.2857142857101</c:v>
+                  <c:v>5765.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2597.5714285714198</c:v>
+                  <c:v>5936.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2665</c:v>
+                  <c:v>6113.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2721.1428571428501</c:v>
+                  <c:v>6260.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2781</c:v>
+                  <c:v>6413.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2854.4285714285702</c:v>
+                  <c:v>6573</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2934.5714285714198</c:v>
+                  <c:v>6764</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3009.2857142857101</c:v>
+                  <c:v>6910.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3078.1428571428501</c:v>
+                  <c:v>7076.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3144.1428571428501</c:v>
+                  <c:v>7219.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3224.8571428571399</c:v>
+                  <c:v>7390.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3292.1428571428501</c:v>
+                  <c:v>7534.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3367.1428571428501</c:v>
+                  <c:v>7711.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3435</c:v>
+                  <c:v>7911.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3520.5714285714198</c:v>
+                  <c:v>8110.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3603.7142857142799</c:v>
+                  <c:v>8295.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3684.8571428571399</c:v>
+                  <c:v>8475.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3765.4285714285702</c:v>
+                  <c:v>8643</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3849.5714285714198</c:v>
+                  <c:v>8823.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3930.8571428571399</c:v>
+                  <c:v>9018</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4013.4285714285702</c:v>
+                  <c:v>9225.6666666666606</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4086.8571428571399</c:v>
+                  <c:v>9417.6666666666606</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4175.4285714285697</c:v>
+                  <c:v>9591</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4942.1666666666597</c:v>
+                  <c:v>9793</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4995.75</c:v>
+                  <c:v>9906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,7 +1286,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A9CA-4AC4-9A30-EB58C5AE4F79}"/>
+              <c16:uniqueId val="{00000000-3932-4E74-A5B9-A9B4A0750518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1291,11 +1298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="587098431"/>
-        <c:axId val="587095071"/>
+        <c:axId val="1994447855"/>
+        <c:axId val="1994440863"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="587098431"/>
+        <c:axId val="1994447855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,7 +1342,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>X-Values</a:t>
                 </a:r>
               </a:p>
@@ -1407,12 +1421,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587095071"/>
+        <c:crossAx val="1994440863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="587095071"/>
+        <c:axId val="1994440863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1466,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Y-ValueS</a:t>
                 </a:r>
               </a:p>
@@ -1524,7 +1545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587098431"/>
+        <c:crossAx val="1994447855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2134,22 +2155,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:colOff>167640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72778718-DF7A-1B41-6EA8-F8B32C940F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E1DD86-700F-7158-D3C2-CB4252D45F49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,11 +2507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2AA85F-4A34-4628-9BB4-989780FCEC75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9394AF2B-6AA9-42E3-ABAA-9C3F2DF48324}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2500,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2508,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.4285714285714199</v>
+        <v>9.3333333333333304</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2516,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.571428571428498</v>
+        <v>-9.3333333333333304</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2524,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14.857142857142801</v>
+        <v>-21.3333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2532,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20.1428571428571</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2540,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>17.714285714285701</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2548,7 +2569,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>24.428571428571399</v>
+        <v>42.3333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2556,7 +2577,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>78.6666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2564,7 +2585,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2572,7 +2593,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>58.428571428571402</v>
+        <v>108.666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2580,7 +2601,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>59.571428571428498</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2588,7 +2609,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>136.333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2596,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>77.571428571428498</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2604,7 +2625,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>186.666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2612,7 +2633,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>100.428571428571</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2620,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>114.714285714285</v>
+        <v>272.33333333333297</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2628,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>141.28571428571399</v>
+        <v>295.33333333333297</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2636,7 +2657,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>155.71428571428501</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2644,7 +2665,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>178.28571428571399</v>
+        <v>326.666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2652,7 +2673,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>194.28571428571399</v>
+        <v>386.666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2660,7 +2681,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>214.57142857142799</v>
+        <v>423.666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2668,7 +2689,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>226.42857142857099</v>
+        <v>470.666666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2676,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>235.71428571428501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2684,7 +2705,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>254.85714285714201</v>
+        <v>570.66666666666595</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2692,7 +2713,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>276</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2700,7 +2721,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>305.85714285714198</v>
+        <v>681.33333333333303</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2708,7 +2729,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>329.85714285714198</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2716,7 +2737,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>364.57142857142799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2724,7 +2745,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>382.57142857142799</v>
+        <v>870.33333333333303</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2732,7 +2753,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>402.57142857142799</v>
+        <v>916.33333333333303</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2740,7 +2761,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>428.57142857142799</v>
+        <v>948.66666666666595</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2748,7 +2769,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>458.71428571428498</v>
+        <v>994.33333333333303</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2756,7 +2777,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>490.71428571428498</v>
+        <v>1081.3333333333301</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2764,7 +2785,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>521.28571428571399</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2772,7 +2793,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>559.28571428571399</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2780,7 +2801,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>592.71428571428498</v>
+        <v>1287.3333333333301</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2788,7 +2809,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>621.28571428571399</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2796,7 +2817,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>652.85714285714198</v>
+        <v>1459.3333333333301</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2804,7 +2825,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>685.85714285714198</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2812,7 +2833,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>714.85714285714198</v>
+        <v>1643.3333333333301</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2820,7 +2841,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>741.85714285714198</v>
+        <v>1698.6666666666599</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2828,7 +2849,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>767.142857142857</v>
+        <v>1764.6666666666599</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2836,7 +2857,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>800.71428571428498</v>
+        <v>1844.3333333333301</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2844,7 +2865,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>845.142857142857</v>
+        <v>1957.6666666666599</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2852,7 +2873,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>889.142857142857</v>
+        <v>2062.3333333333298</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2860,7 +2881,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>927.71428571428498</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2868,7 +2889,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>971.42857142857099</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2876,7 +2897,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1008.1428571428499</v>
+        <v>2348.3333333333298</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2884,7 +2905,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1051.42857142857</v>
+        <v>2439.3333333333298</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2892,7 +2913,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1086.57142857142</v>
+        <v>2515.6666666666601</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2900,7 +2921,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1140.1428571428501</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2908,7 +2929,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1196</v>
+        <v>2694.6666666666601</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2916,7 +2937,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1241.2857142857099</v>
+        <v>2812.3333333333298</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2924,7 +2945,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1286.42857142857</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2932,7 +2953,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1333.57142857142</v>
+        <v>3012.6666666666601</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2940,7 +2961,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1381.57142857142</v>
+        <v>3123.6666666666601</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2948,7 +2969,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1421.42857142857</v>
+        <v>3225.6666666666601</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2956,7 +2977,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1459.57142857142</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2964,7 +2985,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1508.2857142857099</v>
+        <v>3470.6666666666601</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2972,7 +2993,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1569.42857142857</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2980,7 +3001,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1629.8571428571399</v>
+        <v>3685.3333333333298</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2988,7 +3009,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1682.8571428571399</v>
+        <v>3828.6666666666601</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2996,7 +3017,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1728.2857142857099</v>
+        <v>3957.3333333333298</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3004,7 +3025,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1786.1428571428501</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3012,7 +3033,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1851</v>
+        <v>4217.6666666666597</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3020,7 +3041,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1920.57142857142</v>
+        <v>4340.3333333333303</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3028,7 +3049,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1976.57142857142</v>
+        <v>4483.6666666666597</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3036,7 +3057,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2026.7142857142801</v>
+        <v>4635.6666666666597</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3044,7 +3065,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2074.1428571428501</v>
+        <v>4781.3333333333303</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3052,7 +3073,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2127</v>
+        <v>4915.6666666666597</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3060,7 +3081,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2187.2857142857101</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3068,7 +3089,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2258.8571428571399</v>
+        <v>5203.6666666666597</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3076,7 +3097,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2332.7142857142799</v>
+        <v>5329.3333333333303</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3084,7 +3105,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2394.2857142857101</v>
+        <v>5460.6666666666597</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3092,7 +3113,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2456.2857142857101</v>
+        <v>5608.3333333333303</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3100,7 +3121,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2521.2857142857101</v>
+        <v>5765.3333333333303</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3108,7 +3129,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2597.5714285714198</v>
+        <v>5936.3333333333303</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3116,7 +3137,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2665</v>
+        <v>6113.3333333333303</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3124,7 +3145,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2721.1428571428501</v>
+        <v>6260.6666666666597</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3132,7 +3153,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2781</v>
+        <v>6413.3333333333303</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3140,7 +3161,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2854.4285714285702</v>
+        <v>6573</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3148,7 +3169,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2934.5714285714198</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3156,7 +3177,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3009.2857142857101</v>
+        <v>6910.6666666666597</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3164,7 +3185,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>3078.1428571428501</v>
+        <v>7076.3333333333303</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3172,7 +3193,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>3144.1428571428501</v>
+        <v>7219.3333333333303</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3180,7 +3201,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>3224.8571428571399</v>
+        <v>7390.6666666666597</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3188,7 +3209,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>3292.1428571428501</v>
+        <v>7534.6666666666597</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3196,7 +3217,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>3367.1428571428501</v>
+        <v>7711.6666666666597</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3204,7 +3225,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>3435</v>
+        <v>7911.6666666666597</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3212,7 +3233,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>3520.5714285714198</v>
+        <v>8110.3333333333303</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3220,7 +3241,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>3603.7142857142799</v>
+        <v>8295.3333333333303</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3228,7 +3249,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>3684.8571428571399</v>
+        <v>8475.3333333333303</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3236,7 +3257,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>3765.4285714285702</v>
+        <v>8643</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3244,7 +3265,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>3849.5714285714198</v>
+        <v>8823.3333333333303</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3252,7 +3273,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>3930.8571428571399</v>
+        <v>9018</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3260,7 +3281,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4013.4285714285702</v>
+        <v>9225.6666666666606</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3268,7 +3289,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>4086.8571428571399</v>
+        <v>9417.6666666666606</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3276,7 +3297,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>4175.4285714285697</v>
+        <v>9591</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3284,7 +3305,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>4942.1666666666597</v>
+        <v>9793</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3292,7 +3313,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>4995.75</v>
+        <v>9906</v>
       </c>
     </row>
   </sheetData>
